--- a/source/resources/source-data/DEQM_Capability_Statement_Reporter_Client.xlsx
+++ b/source/resources/source-data/DEQM_Capability_Statement_Reporter_Client.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ERICS-AIR-2\ehaas\Documents\FHIR\Davinci-DEQM\source\resources\source-data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1267A707-8B32-4473-AF30-72AFB5DDF47D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CF1FE04-EA2D-4415-A006-1A3E12657D4D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25080" yWindow="375" windowWidth="19440" windowHeight="15000" firstSheet="1" activeTab="4" xr2:uid="{33C1B24A-521B-4A24-AA1F-999D8048322A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" activeTab="2" xr2:uid="{33C1B24A-521B-4A24-AA1F-999D8048322A}"/>
   </bookViews>
   <sheets>
     <sheet name="meta" sheetId="1" r:id="rId1"/>
@@ -225,52 +225,25 @@
     <t>For general security consideration refer to the [Security and Privacy Considerations](http://build.fhir.org/secpriv-module.html).</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/davinci-deqm/STU3/StructureDefinition/devicerequest-deqm</t>
-  </si>
-  <si>
     <t>DeviceRequest</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/davinci-deqm/STU3/StructureDefinition/medicationadministration-deqm</t>
-  </si>
-  <si>
     <t>MedicationAdministration</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/davinci-deqm/STU3/StructureDefinition/summary-measurereport-deqm</t>
-  </si>
-  <si>
     <t>MeasureReport</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/davinci-deqm/STU3/StructureDefinition/practitioner-deqm</t>
-  </si>
-  <si>
     <t>Practitioner</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/davinci-deqm/STU3/StructureDefinition/deviceusestatement-deqm</t>
-  </si>
-  <si>
     <t>DeviceUseStatement</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/davinci-deqm/STU3/StructureDefinition/organization-deqm</t>
-  </si>
-  <si>
     <t>Organization</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/davinci-deqm/STU3/StructureDefinition/coverage-deqm</t>
-  </si>
-  <si>
     <t>Coverage</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/davinci-deqm/STU3/StructureDefinition/indv-measurereport-deqm</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/davinci-deqm/STU3/StructureDefinition/medicationrequest-deqm</t>
   </si>
   <si>
     <t>MedicationRequest</t>
@@ -389,9 +362,6 @@
     <t>date,token</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/davinci-deqm/ImplementationGuide/hl7.fhir.us.davinci-deqm-1.0.0</t>
-  </si>
-  <si>
     <t>http://hl7.org/fhir/us/qicore/ImplementationGuide/us-qicore-3.2.0</t>
   </si>
   <si>
@@ -401,9 +371,6 @@
     <t>version</t>
   </si>
   <si>
-    <t>3.0.1</t>
-  </si>
-  <si>
     <t>fhirVersion</t>
   </si>
   <si>
@@ -455,7 +422,40 @@
     <t>should_revinclude</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>4.0.0</t>
+  </si>
+  <si>
+    <t>1.1.0</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/davinci-deqm/ImplementationGuide/hl7.fhir.us.davinci-deqm-1.1.0</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/davinci-deqm/StructureDefinition/devicerequest-deqm</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/davinci-deqm/StructureDefinition/medicationadministration-deqm</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/davinci-deqm/StructureDefinition/summary-measurereport-deqm</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/davinci-deqm/StructureDefinition/practitioner-deqm</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/davinci-deqm/StructureDefinition/deviceusestatement-deqm</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/davinci-deqm/StructureDefinition/organization-deqm</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/davinci-deqm/StructureDefinition/coverage-deqm</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/davinci-deqm/StructureDefinition/indv-measurereport-deqm</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/davinci-deqm/StructureDefinition/medicationrequest-deqm</t>
   </si>
 </sst>
 </file>
@@ -871,7 +871,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -893,23 +893,23 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="B3" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="B4" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -917,7 +917,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -925,7 +925,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -933,7 +933,7 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -941,7 +941,7 @@
         <v>9</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -976,23 +976,23 @@
         <v>44</v>
       </c>
       <c r="B1" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="B2" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -1005,8 +1005,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B139EF60-0633-48C5-B394-C56F006BD6B3}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1033,128 +1033,128 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>49</v>
+        <v>117</v>
       </c>
       <c r="B2" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>51</v>
+        <v>118</v>
       </c>
       <c r="B3" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>53</v>
+        <v>119</v>
       </c>
       <c r="B4" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>55</v>
+        <v>120</v>
       </c>
       <c r="B5" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
       </c>
       <c r="D5" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>57</v>
+        <v>121</v>
       </c>
       <c r="B6" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>59</v>
+        <v>122</v>
       </c>
       <c r="B7" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>61</v>
+        <v>123</v>
       </c>
       <c r="B8" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
       </c>
       <c r="D8" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>63</v>
+        <v>124</v>
       </c>
       <c r="B9" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
       </c>
       <c r="D9" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>64</v>
+        <v>125</v>
       </c>
       <c r="B10" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
       </c>
       <c r="D10" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -1198,61 +1198,61 @@
         <v>25</v>
       </c>
       <c r="E1" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="F1" t="s">
         <v>26</v>
       </c>
       <c r="G1" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="H1" t="s">
         <v>37</v>
       </c>
       <c r="I1" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="J1" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="K1" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="L1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="M1" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="N1" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="O1" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="P1" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="Q1" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="R1" t="s">
         <v>27</v>
       </c>
       <c r="S1" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="T1" s="6" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="U1" s="6" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="V1" s="6" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="W1" s="6" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="X1" t="s">
         <v>47</v>
@@ -1260,13 +1260,13 @@
     </row>
     <row r="2" spans="1:24" ht="60.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B2" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -1283,7 +1283,7 @@
   </sheetPr>
   <dimension ref="A1:E1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
@@ -1338,7 +1338,7 @@
         <v>40</v>
       </c>
       <c r="B1" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -1346,7 +1346,7 @@
         <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -1412,42 +1412,42 @@
         <v>41</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="B2" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="C2" s="1"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="B3" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="C3" s="1"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="B4" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="C4" s="1"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="B5" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="C5" s="1"/>
     </row>
@@ -1551,34 +1551,34 @@
   <sheetData>
     <row r="1" spans="1:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="H1" s="6" t="s">
         <v>4</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -1586,20 +1586,20 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="C2" t="str">
         <f t="shared" ref="C2" si="0">"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B2)</f>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!encounter</v>
       </c>
       <c r="D2" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="E2" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="F2" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="J2" s="7" t="str">
         <f t="shared" ref="J2" si="1">"Fetches a bundle of all "&amp;B2&amp;" resources matching the specified "&amp;SUBSTITUTE(D2,","," and ")</f>

--- a/source/resources/source-data/DEQM_Capability_Statement_Reporter_Client.xlsx
+++ b/source/resources/source-data/DEQM_Capability_Statement_Reporter_Client.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ERICS-AIR-2\ehaas\Documents\FHIR\Davinci-DEQM\source\resources\source-data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ehaas/Documents/FHIR/Davinci-DEQM/source/resources/source-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CF1FE04-EA2D-4415-A006-1A3E12657D4D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1E87471-6E13-DC48-B976-6592E99635E1}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" activeTab="2" xr2:uid="{33C1B24A-521B-4A24-AA1F-999D8048322A}"/>
+    <workbookView xWindow="-45200" yWindow="1020" windowWidth="25440" windowHeight="15400" activeTab="6" xr2:uid="{33C1B24A-521B-4A24-AA1F-999D8048322A}"/>
   </bookViews>
   <sheets>
     <sheet name="meta" sheetId="1" r:id="rId1"/>
@@ -874,13 +874,13 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.7109375" customWidth="1"/>
-    <col min="2" max="2" width="95.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.6640625" customWidth="1"/>
+    <col min="2" max="2" width="95.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -888,7 +888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -896,7 +896,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>96</v>
       </c>
@@ -904,7 +904,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>97</v>
       </c>
@@ -912,7 +912,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="80" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -920,7 +920,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -928,7 +928,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -936,7 +936,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" ht="64" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -944,7 +944,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -965,13 +965,13 @@
       <selection activeCell="A2" sqref="A2:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="68.140625" customWidth="1"/>
-    <col min="3" max="3" width="39.28515625" customWidth="1"/>
+    <col min="2" max="2" width="68.1640625" customWidth="1"/>
+    <col min="3" max="3" width="39.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>44</v>
       </c>
@@ -979,7 +979,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>67</v>
       </c>
@@ -987,7 +987,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>72</v>
       </c>
@@ -1005,19 +1005,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B139EF60-0633-48C5-B394-C56F006BD6B3}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="98.42578125" customWidth="1"/>
-    <col min="2" max="2" width="60.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" customWidth="1"/>
-    <col min="4" max="4" width="16.140625" customWidth="1"/>
+    <col min="1" max="1" width="98.5" customWidth="1"/>
+    <col min="2" max="2" width="60.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.1640625" customWidth="1"/>
+    <col min="4" max="4" width="16.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -1031,7 +1031,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>117</v>
       </c>
@@ -1045,7 +1045,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>118</v>
       </c>
@@ -1059,7 +1059,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>119</v>
       </c>
@@ -1073,7 +1073,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>120</v>
       </c>
@@ -1087,7 +1087,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>121</v>
       </c>
@@ -1101,7 +1101,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>122</v>
       </c>
@@ -1115,7 +1115,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>123</v>
       </c>
@@ -1129,7 +1129,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>124</v>
       </c>
@@ -1143,7 +1143,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>125</v>
       </c>
@@ -1172,19 +1172,19 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="36.42578125" customWidth="1"/>
-    <col min="2" max="2" width="25.28515625" customWidth="1"/>
+    <col min="1" max="1" width="36.5" customWidth="1"/>
+    <col min="2" max="2" width="25.33203125" customWidth="1"/>
     <col min="3" max="3" width="53" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" customWidth="1"/>
-    <col min="5" max="6" width="17.42578125" customWidth="1"/>
-    <col min="7" max="7" width="20.42578125" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25.42578125" customWidth="1"/>
+    <col min="4" max="4" width="15.1640625" customWidth="1"/>
+    <col min="5" max="6" width="17.5" customWidth="1"/>
+    <col min="7" max="7" width="20.5" customWidth="1"/>
+    <col min="8" max="8" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:24" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>38</v>
       </c>
@@ -1258,7 +1258,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="60.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" ht="49" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>51</v>
       </c>
@@ -1287,15 +1287,15 @@
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="59" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.140625" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.1640625" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>44</v>
       </c>
@@ -1326,14 +1326,14 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" customWidth="1"/>
-    <col min="2" max="2" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.42578125" customWidth="1"/>
+    <col min="1" max="1" width="16.33203125" customWidth="1"/>
+    <col min="2" max="2" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>40</v>
       </c>
@@ -1341,7 +1341,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>28</v>
       </c>
@@ -1349,42 +1349,42 @@
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>36</v>
       </c>
@@ -1398,13 +1398,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B36F46D6-CA8E-44D2-B3D1-E2BF7BBCE19C}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>40</v>
       </c>
@@ -1415,16 +1415,16 @@
         <v>76</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>77</v>
       </c>
       <c r="B2" t="s">
-        <v>78</v>
+        <v>5</v>
       </c>
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>79</v>
       </c>
@@ -1433,7 +1433,7 @@
       </c>
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>80</v>
       </c>
@@ -1442,7 +1442,7 @@
       </c>
       <c r="C4" s="1"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>81</v>
       </c>
@@ -1464,21 +1464,21 @@
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="63.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.7109375" customWidth="1"/>
-    <col min="3" max="3" width="19.42578125" customWidth="1"/>
-    <col min="4" max="5" width="9.140625" customWidth="1"/>
-    <col min="6" max="6" width="22.7109375" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" customWidth="1"/>
-    <col min="8" max="8" width="34.7109375" customWidth="1"/>
-    <col min="9" max="15" width="9.140625" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" customWidth="1"/>
-    <col min="17" max="17" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="63.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.6640625" customWidth="1"/>
+    <col min="3" max="3" width="19.5" customWidth="1"/>
+    <col min="4" max="5" width="9.1640625" customWidth="1"/>
+    <col min="6" max="6" width="22.6640625" customWidth="1"/>
+    <col min="7" max="7" width="9.1640625" customWidth="1"/>
+    <col min="8" max="8" width="34.6640625" customWidth="1"/>
+    <col min="9" max="15" width="9.1640625" customWidth="1"/>
+    <col min="16" max="16" width="14.5" customWidth="1"/>
+    <col min="17" max="17" width="20.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -1531,7 +1531,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
     </row>
   </sheetData>
@@ -1547,9 +1547,9 @@
       <selection activeCell="C8" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>82</v>
       </c>
@@ -1581,7 +1581,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="16" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
